--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1585,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1632,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1678,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1746,10 +1758,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1793,28 +1805,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1839,28 +1851,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1948,10 +1960,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1995,28 +2007,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2041,28 +2053,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2294,10 +2306,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2341,28 +2353,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2387,28 +2399,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2496,10 +2508,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2543,28 +2555,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2589,28 +2601,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2669,10 +2681,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2716,28 +2728,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2762,28 +2774,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2871,10 +2883,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2918,28 +2930,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2964,28 +2976,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3044,10 +3056,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3091,28 +3103,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3137,28 +3149,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3246,10 +3258,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3293,28 +3305,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3339,28 +3351,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3448,10 +3460,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3495,28 +3507,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3541,28 +3553,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3708,10 +3720,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3755,28 +3767,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3801,28 +3813,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3939,10 +3951,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3986,28 +3998,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4032,28 +4044,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4170,10 +4182,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4217,28 +4229,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4263,28 +4275,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4343,10 +4355,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4436,28 +4448,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4516,10 +4528,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4563,28 +4575,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4609,28 +4621,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4689,10 +4701,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4736,28 +4748,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4782,28 +4794,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4891,10 +4903,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4938,28 +4950,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4984,28 +4996,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5064,10 +5076,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5111,28 +5123,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5157,28 +5169,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5237,10 +5249,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5284,28 +5296,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5330,28 +5342,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5410,10 +5422,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5457,28 +5469,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5503,28 +5515,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5583,10 +5595,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5630,28 +5642,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5676,28 +5688,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5756,10 +5768,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5803,28 +5815,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5849,28 +5861,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5929,10 +5941,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5976,28 +5988,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6022,28 +6034,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6102,10 +6114,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6149,28 +6161,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6195,28 +6207,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6275,10 +6287,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6322,28 +6334,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6368,28 +6380,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6448,10 +6460,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6495,28 +6507,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6541,28 +6553,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6621,10 +6633,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6668,28 +6680,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6714,28 +6726,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6794,10 +6806,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6841,28 +6853,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6887,28 +6899,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6967,10 +6979,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7014,28 +7026,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7060,28 +7072,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7140,10 +7152,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7187,28 +7199,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7233,28 +7245,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7313,10 +7325,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7360,28 +7372,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7406,28 +7418,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7573,10 +7585,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7620,28 +7632,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7666,28 +7678,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7746,10 +7758,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7793,28 +7805,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7839,28 +7851,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7919,10 +7931,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7966,28 +7978,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8012,28 +8024,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8092,10 +8104,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8139,28 +8151,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8185,28 +8197,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8265,10 +8277,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8312,28 +8324,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8358,28 +8370,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8438,10 +8450,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8485,28 +8497,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8531,28 +8543,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8640,10 +8652,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8687,28 +8699,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8733,28 +8745,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8813,10 +8825,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8860,28 +8872,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
+      <c r="A303" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="2">
+      <c r="C303" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8906,28 +8918,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="2">
+      <c r="C305" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="2">
+      <c r="D305" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="2">
+      <c r="I305" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8986,10 +8998,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9033,28 +9045,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9079,28 +9091,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9275,10 +9287,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9322,28 +9334,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9368,28 +9380,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9477,10 +9489,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9524,28 +9536,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9570,28 +9582,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9679,10 +9691,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9726,28 +9738,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9772,28 +9784,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9881,10 +9893,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9928,28 +9940,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9974,28 +9986,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10054,10 +10066,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10101,28 +10113,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10147,28 +10159,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10227,10 +10239,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10274,28 +10286,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10320,28 +10332,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10429,10 +10441,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="2" t="s">
+      <c r="J357" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10476,28 +10488,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
+      <c r="A359" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="2">
+      <c r="C359" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10522,28 +10534,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="C361" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="2">
+      <c r="D361" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="2">
+      <c r="I361" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10602,10 +10614,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10649,28 +10661,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10695,28 +10707,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10804,10 +10816,10 @@
       <c r="I370">
         <f>((C370-C369)^2+(D370- D369)^2)^.5</f>
       </c>
-      <c r="J370" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K370" s="2" t="s">
+      <c r="J370" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K370" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L370" t="n">
@@ -10851,28 +10863,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="2">
+      <c r="A372" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C372" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D372" t="s" s="2">
+      <c r="C372" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D372" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10897,28 +10909,28 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="2">
+      <c r="B374" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C374" t="s" s="2">
+      <c r="C374" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D374" t="s" s="2">
+      <c r="D374" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E374" t="s" s="2">
+      <c r="E374" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F374" t="s" s="2">
+      <c r="F374" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G374" t="s" s="2">
+      <c r="G374" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H374" t="s" s="2">
+      <c r="H374" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I374" t="s" s="2">
+      <c r="I374" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11064,10 +11076,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11111,28 +11123,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11157,28 +11169,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11266,10 +11278,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11313,28 +11325,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11359,28 +11371,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11439,10 +11451,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11486,28 +11498,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11532,28 +11544,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11612,10 +11624,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="2" t="s">
+      <c r="J398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11659,28 +11671,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="2">
+      <c r="A400" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="2">
+      <c r="C400" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11705,28 +11717,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="2">
+      <c r="C402" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="2">
+      <c r="D402" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="2">
+      <c r="I402" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11843,10 +11855,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
